--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angpt4-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angpt4-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tek</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.741645</v>
+        <v>0.04873833333333333</v>
       </c>
       <c r="H2">
-        <v>5.224935</v>
+        <v>0.146215</v>
       </c>
       <c r="I2">
-        <v>0.903829134901074</v>
+        <v>0.02106797933705496</v>
       </c>
       <c r="J2">
-        <v>0.9038291349010741</v>
+        <v>0.02106797933705496</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.69746666666666</v>
+        <v>43.28265566666667</v>
       </c>
       <c r="N2">
-        <v>134.0924</v>
+        <v>129.847967</v>
       </c>
       <c r="O2">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="P2">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="Q2">
-        <v>77.84711933266667</v>
+        <v>2.109524499433889</v>
       </c>
       <c r="R2">
-        <v>700.624073994</v>
+        <v>18.985720494905</v>
       </c>
       <c r="S2">
-        <v>0.6167704885528491</v>
+        <v>0.0140569609102665</v>
       </c>
       <c r="T2">
-        <v>0.6167704885528492</v>
+        <v>0.0140569609102665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.741645</v>
+        <v>0.04873833333333333</v>
       </c>
       <c r="H3">
-        <v>5.224935</v>
+        <v>0.146215</v>
       </c>
       <c r="I3">
-        <v>0.903829134901074</v>
+        <v>0.02106797933705496</v>
       </c>
       <c r="J3">
-        <v>0.9038291349010741</v>
+        <v>0.02106797933705496</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>55.897306</v>
       </c>
       <c r="O3">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="P3">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="Q3">
-        <v>32.45108783612334</v>
+        <v>0.9081138440877777</v>
       </c>
       <c r="R3">
-        <v>292.05979052511</v>
+        <v>8.173024596789999</v>
       </c>
       <c r="S3">
-        <v>0.2571048674675679</v>
+        <v>0.006051278765351829</v>
       </c>
       <c r="T3">
-        <v>0.2571048674675679</v>
+        <v>0.006051278765351829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.741645</v>
+        <v>0.04873833333333333</v>
       </c>
       <c r="H4">
-        <v>5.224935</v>
+        <v>0.146215</v>
       </c>
       <c r="I4">
-        <v>0.903829134901074</v>
+        <v>0.02106797933705496</v>
       </c>
       <c r="J4">
-        <v>0.9038291349010741</v>
+        <v>0.02106797933705496</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.170755666666667</v>
+        <v>2.955125333333334</v>
       </c>
       <c r="N4">
-        <v>6.512267</v>
+        <v>8.865376000000001</v>
       </c>
       <c r="O4">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999943</v>
       </c>
       <c r="P4">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999944</v>
       </c>
       <c r="Q4">
-        <v>3.780685753071667</v>
+        <v>0.1440278835377778</v>
       </c>
       <c r="R4">
-        <v>34.026171777645</v>
+        <v>1.29625095184</v>
       </c>
       <c r="S4">
-        <v>0.02995377888065691</v>
+        <v>0.0009597396614366305</v>
       </c>
       <c r="T4">
-        <v>0.0299537788806569</v>
+        <v>0.0009597396614366307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1853176666666667</v>
+        <v>1.741645</v>
       </c>
       <c r="H5">
-        <v>0.555953</v>
+        <v>5.224935</v>
       </c>
       <c r="I5">
-        <v>0.09617086509892599</v>
+        <v>0.7528558808429727</v>
       </c>
       <c r="J5">
-        <v>0.09617086509892599</v>
+        <v>0.7528558808429727</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.69746666666666</v>
+        <v>43.28265566666667</v>
       </c>
       <c r="N5">
-        <v>134.0924</v>
+        <v>129.847967</v>
       </c>
       <c r="O5">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="P5">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="Q5">
-        <v>8.283230228577779</v>
+        <v>75.38302082857167</v>
       </c>
       <c r="R5">
-        <v>74.54907205720001</v>
+        <v>678.4471874571451</v>
       </c>
       <c r="S5">
-        <v>0.06562673093970015</v>
+        <v>0.502319919664079</v>
       </c>
       <c r="T5">
-        <v>0.06562673093970015</v>
+        <v>0.502319919664079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1853176666666667</v>
+        <v>1.741645</v>
       </c>
       <c r="H6">
-        <v>0.555953</v>
+        <v>5.224935</v>
       </c>
       <c r="I6">
-        <v>0.09617086509892599</v>
+        <v>0.7528558808429727</v>
       </c>
       <c r="J6">
-        <v>0.09617086509892599</v>
+        <v>0.7528558808429727</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>55.897306</v>
       </c>
       <c r="O6">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="P6">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="Q6">
-        <v>3.452919440290889</v>
+        <v>32.45108783612334</v>
       </c>
       <c r="R6">
-        <v>31.076274962618</v>
+        <v>292.05979052511</v>
       </c>
       <c r="S6">
-        <v>0.02735693791084421</v>
+        <v>0.2162400452473656</v>
       </c>
       <c r="T6">
-        <v>0.02735693791084421</v>
+        <v>0.2162400452473656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.741645</v>
+      </c>
+      <c r="H7">
+        <v>5.224935</v>
+      </c>
+      <c r="I7">
+        <v>0.7528558808429727</v>
+      </c>
+      <c r="J7">
+        <v>0.7528558808429727</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.955125333333334</v>
+      </c>
+      <c r="N7">
+        <v>8.865376000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.04555442389999943</v>
+      </c>
+      <c r="P7">
+        <v>0.04555442389999944</v>
+      </c>
+      <c r="Q7">
+        <v>5.146779261173334</v>
+      </c>
+      <c r="R7">
+        <v>46.32101335056001</v>
+      </c>
+      <c r="S7">
+        <v>0.03429591593152824</v>
+      </c>
+      <c r="T7">
+        <v>0.03429591593152825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5230009999999999</v>
+      </c>
+      <c r="H8">
+        <v>1.569003</v>
+      </c>
+      <c r="I8">
+        <v>0.2260761398199722</v>
+      </c>
+      <c r="J8">
+        <v>0.2260761398199722</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>43.28265566666667</v>
+      </c>
+      <c r="N8">
+        <v>129.847967</v>
+      </c>
+      <c r="O8">
+        <v>0.667219228070094</v>
+      </c>
+      <c r="P8">
+        <v>0.667219228070094</v>
+      </c>
+      <c r="Q8">
+        <v>22.63687219632233</v>
+      </c>
+      <c r="R8">
+        <v>203.731849766901</v>
+      </c>
+      <c r="S8">
+        <v>0.1508423474957485</v>
+      </c>
+      <c r="T8">
+        <v>0.1508423474957485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.1853176666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.555953</v>
-      </c>
-      <c r="I7">
-        <v>0.09617086509892599</v>
-      </c>
-      <c r="J7">
-        <v>0.09617086509892599</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.170755666666667</v>
-      </c>
-      <c r="N7">
-        <v>6.512267</v>
-      </c>
-      <c r="O7">
-        <v>0.03314097512903853</v>
-      </c>
-      <c r="P7">
-        <v>0.03314097512903853</v>
-      </c>
-      <c r="Q7">
-        <v>0.4022793750501112</v>
-      </c>
-      <c r="R7">
-        <v>3.620514375451001</v>
-      </c>
-      <c r="S7">
-        <v>0.003187196248381626</v>
-      </c>
-      <c r="T7">
-        <v>0.003187196248381625</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5230009999999999</v>
+      </c>
+      <c r="H9">
+        <v>1.569003</v>
+      </c>
+      <c r="I9">
+        <v>0.2260761398199722</v>
+      </c>
+      <c r="J9">
+        <v>0.2260761398199722</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.63243533333333</v>
+      </c>
+      <c r="N9">
+        <v>55.897306</v>
+      </c>
+      <c r="O9">
+        <v>0.2872263480299067</v>
+      </c>
+      <c r="P9">
+        <v>0.2872263480299067</v>
+      </c>
+      <c r="Q9">
+        <v>9.744782311768665</v>
+      </c>
+      <c r="R9">
+        <v>87.70304080591799</v>
+      </c>
+      <c r="S9">
+        <v>0.06493502401718919</v>
+      </c>
+      <c r="T9">
+        <v>0.06493502401718919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5230009999999999</v>
+      </c>
+      <c r="H10">
+        <v>1.569003</v>
+      </c>
+      <c r="I10">
+        <v>0.2260761398199722</v>
+      </c>
+      <c r="J10">
+        <v>0.2260761398199722</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.955125333333334</v>
+      </c>
+      <c r="N10">
+        <v>8.865376000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.04555442389999943</v>
+      </c>
+      <c r="P10">
+        <v>0.04555442389999944</v>
+      </c>
+      <c r="Q10">
+        <v>1.545533504458667</v>
+      </c>
+      <c r="R10">
+        <v>13.909801540128</v>
+      </c>
+      <c r="S10">
+        <v>0.01029876830703456</v>
+      </c>
+      <c r="T10">
+        <v>0.01029876830703456</v>
       </c>
     </row>
   </sheetData>
